--- a/data/DEMs/DEMs_md_V2.xlsx
+++ b/data/DEMs/DEMs_md_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Static_Background" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="382">
   <si>
     <t>pth</t>
   </si>
@@ -1162,6 +1162,21 @@
   </si>
   <si>
     <t>data/DEMs/north_eastren_Model_Base.tif</t>
+  </si>
+  <si>
+    <t>north_eastren_judeaLO_WL_1975</t>
+  </si>
+  <si>
+    <t>north_eastren_eocene_WL_1975</t>
+  </si>
+  <si>
+    <t>data/DEMs/DEMs_dynamic/north_eastren_eocene_WL_1975.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/DEMs_dynamic/north_eastren_judeaLO_WL_1975.tif</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1576,9 +1591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,19 +3298,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3305,8 +3320,11 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3316,8 +3334,11 @@
       <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3327,8 +3348,11 @@
       <c r="C3" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3338,8 +3362,11 @@
       <c r="C4" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3349,8 +3376,11 @@
       <c r="C5" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3360,8 +3390,11 @@
       <c r="C6" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -3371,8 +3404,11 @@
       <c r="C7" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -3382,8 +3418,11 @@
       <c r="C8" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -3393,8 +3432,11 @@
       <c r="C9" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -3404,8 +3446,11 @@
       <c r="C10" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -3415,8 +3460,11 @@
       <c r="C11" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -3426,8 +3474,11 @@
       <c r="C12" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -3437,8 +3488,11 @@
       <c r="C13" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -3448,8 +3502,11 @@
       <c r="C14" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -3459,8 +3516,11 @@
       <c r="C15" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -3470,8 +3530,11 @@
       <c r="C16" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -3481,8 +3544,11 @@
       <c r="C17" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -3492,8 +3558,11 @@
       <c r="C18" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -3503,8 +3572,11 @@
       <c r="C19" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -3514,8 +3586,11 @@
       <c r="C20" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -3525,8 +3600,11 @@
       <c r="C21" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -3536,8 +3614,11 @@
       <c r="C22" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -3547,8 +3628,11 @@
       <c r="C23" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -3558,8 +3642,11 @@
       <c r="C24" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -3569,8 +3656,11 @@
       <c r="C25" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -3580,8 +3670,11 @@
       <c r="C26" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -3591,8 +3684,11 @@
       <c r="C27" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -3602,8 +3698,11 @@
       <c r="C28" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -3613,8 +3712,11 @@
       <c r="C29" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -3624,8 +3726,11 @@
       <c r="C30" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3635,8 +3740,11 @@
       <c r="C31" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -3646,8 +3754,11 @@
       <c r="C32" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -3657,8 +3768,11 @@
       <c r="C33" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -3668,8 +3782,11 @@
       <c r="C34" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -3679,8 +3796,11 @@
       <c r="C35" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -3690,8 +3810,11 @@
       <c r="C36" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -3701,8 +3824,11 @@
       <c r="C37" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -3712,8 +3838,11 @@
       <c r="C38" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -3723,8 +3852,11 @@
       <c r="C39" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -3734,8 +3866,11 @@
       <c r="C40" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -3745,8 +3880,11 @@
       <c r="C41" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -3756,8 +3894,11 @@
       <c r="C42" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -3767,8 +3908,11 @@
       <c r="C43" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -3778,8 +3922,11 @@
       <c r="C44" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -3789,8 +3936,11 @@
       <c r="C45" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -3800,8 +3950,11 @@
       <c r="C46" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -3811,8 +3964,11 @@
       <c r="C47" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -3822,8 +3978,11 @@
       <c r="C48" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -3833,8 +3992,11 @@
       <c r="C49" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -3844,8 +4006,11 @@
       <c r="C50" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -3855,8 +4020,11 @@
       <c r="C51" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -3866,8 +4034,11 @@
       <c r="C52" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
@@ -3877,8 +4048,11 @@
       <c r="C53" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -3888,8 +4062,11 @@
       <c r="C54" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -3899,8 +4076,11 @@
       <c r="C55" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -3910,8 +4090,11 @@
       <c r="C56" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3921,8 +4104,11 @@
       <c r="C57" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -3932,8 +4118,11 @@
       <c r="C58" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -3943,8 +4132,11 @@
       <c r="C59" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -3954,8 +4146,11 @@
       <c r="C60" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
@@ -3965,8 +4160,11 @@
       <c r="C61" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -3976,8 +4174,11 @@
       <c r="C62" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -3987,8 +4188,11 @@
       <c r="C63" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -3998,8 +4202,11 @@
       <c r="C64" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -4009,8 +4216,11 @@
       <c r="C65" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -4020,8 +4230,11 @@
       <c r="C66" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -4031,8 +4244,11 @@
       <c r="C67" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -4042,8 +4258,11 @@
       <c r="C68" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -4053,8 +4272,11 @@
       <c r="C69" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -4064,8 +4286,11 @@
       <c r="C70" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
@@ -4075,8 +4300,11 @@
       <c r="C71" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
@@ -4086,8 +4314,11 @@
       <c r="C72" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
@@ -4097,8 +4328,11 @@
       <c r="C73" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
@@ -4108,8 +4342,11 @@
       <c r="C74" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
@@ -4119,8 +4356,11 @@
       <c r="C75" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
@@ -4130,8 +4370,11 @@
       <c r="C76" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
@@ -4141,8 +4384,11 @@
       <c r="C77" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
@@ -4152,8 +4398,11 @@
       <c r="C78" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -4163,8 +4412,11 @@
       <c r="C79" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>2</v>
       </c>
@@ -4174,8 +4426,11 @@
       <c r="C80" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>2</v>
       </c>
@@ -4185,8 +4440,11 @@
       <c r="C81" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>2</v>
       </c>
@@ -4196,8 +4454,11 @@
       <c r="C82" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4207,8 +4468,11 @@
       <c r="C83" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
@@ -4218,8 +4482,11 @@
       <c r="C84" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -4228,6 +4495,37 @@
       </c>
       <c r="C85" s="2" t="s">
         <v>213</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D87" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/DEMs/DEMs_md_V2.xlsx
+++ b/data/DEMs/DEMs_md_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Static_Background" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="383">
   <si>
     <t>pth</t>
   </si>
@@ -1122,45 +1122,9 @@
     <t>north_eastren</t>
   </si>
   <si>
-    <t>alluvium_Base</t>
-  </si>
-  <si>
-    <t>eocene_Base</t>
-  </si>
-  <si>
-    <t>senon_Base</t>
-  </si>
-  <si>
-    <t>judeaUP_Base</t>
-  </si>
-  <si>
-    <t>judeaMID_Base</t>
-  </si>
-  <si>
-    <t>judeaLO_Base</t>
-  </si>
-  <si>
     <t>Model_Base</t>
   </si>
   <si>
-    <t>data/DEMs/north_eastren_alluvium_Base.tif</t>
-  </si>
-  <si>
-    <t>data/DEMs/north_eastren_eocene_Base.tif</t>
-  </si>
-  <si>
-    <t>data/DEMs/north_eastren_senon_Base.tif</t>
-  </si>
-  <si>
-    <t>data/DEMs/north_eastren_judeaUP_Base.tif</t>
-  </si>
-  <si>
-    <t>data/DEMs/north_eastren_judeaMID_Base.tif</t>
-  </si>
-  <si>
-    <t>data/DEMs/north_eastren_judeaLO_Base.tif</t>
-  </si>
-  <si>
     <t>data/DEMs/north_eastren_Model_Base.tif</t>
   </si>
   <si>
@@ -1176,7 +1140,46 @@
     <t>data/DEMs/DEMs_dynamic/north_eastren_judeaLO_WL_1975.tif</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>data/DEMs/north_eastren_alluvium_Top.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/north_eastren_eocene_Top.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/north_eastren_senon_Top.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/north_eastren_judeaUP_Top.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/north_eastren_judeaMID_Top.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/north_eastren_judeaLO_Top.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/north_eastren_Kurnob_Top.tif</t>
+  </si>
+  <si>
+    <t>alluvium_Top</t>
+  </si>
+  <si>
+    <t>eocene_Top</t>
+  </si>
+  <si>
+    <t>senon_Top</t>
+  </si>
+  <si>
+    <t>judeaUP_Top</t>
+  </si>
+  <si>
+    <t>judeaMID_Top</t>
+  </si>
+  <si>
+    <t>judeaLO_Top</t>
+  </si>
+  <si>
+    <t>Kurnob_Top</t>
   </si>
 </sst>
 </file>
@@ -1589,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,10 +3167,10 @@
         <v>362</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="7">
@@ -3180,13 +3183,10 @@
         <v>362</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D97" s="2" t="b">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="E97" s="7">
         <v>2</v>
@@ -3198,12 +3198,14 @@
         <v>362</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D98" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="D98" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="E98" s="7">
         <v>3</v>
       </c>
@@ -3214,10 +3216,10 @@
         <v>362</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="7">
@@ -3230,10 +3232,10 @@
         <v>362</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="7">
@@ -3246,13 +3248,10 @@
         <v>362</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D101" s="2" t="b">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="E101" s="7">
         <v>6</v>
@@ -3264,16 +3263,34 @@
         <v>362</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="D102" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="E102" s="7">
         <v>7</v>
       </c>
       <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="7">
+        <v>8</v>
+      </c>
+      <c r="F103" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A90:F94">
@@ -3300,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,9 +3351,7 @@
       <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3348,9 +3363,7 @@
       <c r="C3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3362,9 +3375,7 @@
       <c r="C4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3376,9 +3387,7 @@
       <c r="C5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3390,9 +3399,7 @@
       <c r="C6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3404,9 +3411,7 @@
       <c r="C7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3418,9 +3423,7 @@
       <c r="C8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3432,9 +3435,7 @@
       <c r="C9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3446,9 +3447,7 @@
       <c r="C10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -3460,9 +3459,7 @@
       <c r="C11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3474,9 +3471,7 @@
       <c r="C12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3488,9 +3483,7 @@
       <c r="C13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3502,9 +3495,7 @@
       <c r="C14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3516,9 +3507,7 @@
       <c r="C15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3530,9 +3519,7 @@
       <c r="C16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -3544,9 +3531,7 @@
       <c r="C17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -3558,9 +3543,7 @@
       <c r="C18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -3572,9 +3555,7 @@
       <c r="C19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -3586,9 +3567,7 @@
       <c r="C20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3600,9 +3579,7 @@
       <c r="C21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3614,9 +3591,7 @@
       <c r="C22" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -3628,9 +3603,7 @@
       <c r="C23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -3642,9 +3615,7 @@
       <c r="C24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3656,9 +3627,7 @@
       <c r="C25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3670,9 +3639,7 @@
       <c r="C26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3684,9 +3651,7 @@
       <c r="C27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3698,9 +3663,7 @@
       <c r="C28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3712,9 +3675,7 @@
       <c r="C29" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3726,9 +3687,7 @@
       <c r="C30" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3740,9 +3699,7 @@
       <c r="C31" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3754,9 +3711,7 @@
       <c r="C32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -3768,9 +3723,7 @@
       <c r="C33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -3782,9 +3735,7 @@
       <c r="C34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -3796,9 +3747,7 @@
       <c r="C35" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -3810,9 +3759,7 @@
       <c r="C36" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -3824,9 +3771,7 @@
       <c r="C37" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -3838,9 +3783,7 @@
       <c r="C38" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -3852,9 +3795,7 @@
       <c r="C39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -3866,9 +3807,7 @@
       <c r="C40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -3880,9 +3819,7 @@
       <c r="C41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -3894,9 +3831,7 @@
       <c r="C42" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -3908,9 +3843,7 @@
       <c r="C43" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3922,9 +3855,7 @@
       <c r="C44" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -3936,9 +3867,7 @@
       <c r="C45" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -3950,9 +3879,7 @@
       <c r="C46" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -3964,9 +3891,7 @@
       <c r="C47" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -3978,9 +3903,7 @@
       <c r="C48" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -3992,9 +3915,7 @@
       <c r="C49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4006,9 +3927,7 @@
       <c r="C50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -4020,9 +3939,7 @@
       <c r="C51" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4034,9 +3951,7 @@
       <c r="C52" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -4048,9 +3963,7 @@
       <c r="C53" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4062,9 +3975,7 @@
       <c r="C54" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -4076,9 +3987,7 @@
       <c r="C55" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -4090,9 +3999,7 @@
       <c r="C56" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -4104,9 +4011,7 @@
       <c r="C57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -4118,9 +4023,7 @@
       <c r="C58" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -4132,9 +4035,7 @@
       <c r="C59" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -4146,9 +4047,7 @@
       <c r="C60" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -4160,9 +4059,7 @@
       <c r="C61" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -4174,9 +4071,7 @@
       <c r="C62" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -4188,9 +4083,7 @@
       <c r="C63" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -4202,9 +4095,7 @@
       <c r="C64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
@@ -4216,9 +4107,7 @@
       <c r="C65" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -4230,9 +4119,7 @@
       <c r="C66" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
@@ -4244,9 +4131,7 @@
       <c r="C67" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -4258,9 +4143,7 @@
       <c r="C68" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -4272,9 +4155,7 @@
       <c r="C69" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -4286,9 +4167,7 @@
       <c r="C70" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -4300,9 +4179,7 @@
       <c r="C71" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -4314,9 +4191,7 @@
       <c r="C72" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -4328,9 +4203,7 @@
       <c r="C73" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -4342,9 +4215,7 @@
       <c r="C74" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -4356,9 +4227,7 @@
       <c r="C75" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -4370,9 +4239,7 @@
       <c r="C76" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -4384,9 +4251,7 @@
       <c r="C77" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -4398,9 +4263,7 @@
       <c r="C78" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -4412,9 +4275,7 @@
       <c r="C79" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -4426,9 +4287,7 @@
       <c r="C80" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -4440,9 +4299,7 @@
       <c r="C81" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -4454,9 +4311,7 @@
       <c r="C82" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -4468,9 +4323,7 @@
       <c r="C83" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -4482,9 +4335,7 @@
       <c r="C84" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -4496,22 +4347,20 @@
       <c r="C85" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4519,13 +4368,13 @@
         <v>362</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D87" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/DEMs/DEMs_md_V2.xlsx
+++ b/data/DEMs/DEMs_md_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Static_Background" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="395">
   <si>
     <t>pth</t>
   </si>
@@ -1180,6 +1180,42 @@
   </si>
   <si>
     <t>Kurnob_Top</t>
+  </si>
+  <si>
+    <t>WL_judeaLO_1970</t>
+  </si>
+  <si>
+    <t>WL_judeaUP_1970</t>
+  </si>
+  <si>
+    <t>data/DEMs/DEMs_dynamic/westren_WL_judeaUP_1970.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/DEMs_dynamic/westren_WL_judeaLO_1970.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/DEMs_dynamic/eastren_WL_judeaUP_1970.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/DEMs_dynamic/eastren_WL_judeaLO_1970.tif</t>
+  </si>
+  <si>
+    <t>jerusalem_WL_LO_1965</t>
+  </si>
+  <si>
+    <t>jerusalem_WL_LO_1992</t>
+  </si>
+  <si>
+    <t>jerusalem_WL_LO_2017</t>
+  </si>
+  <si>
+    <t>data/DEMs/DEMs_dynamic/jerusalem_WL_LO_1965.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/DEMs_dynamic/jerusalem_WL_LO_1992.tif</t>
+  </si>
+  <si>
+    <t>data/DEMs/DEMs_dynamic/jerusalem_WL_LO_2017.tif</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1272,11 +1308,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1297,6 +1344,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1594,9 +1642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1976,9 @@
       <c r="C20" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="E20" s="9">
         <v>4</v>
       </c>
@@ -3315,14 +3365,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4347,17 +4398,19 @@
       <c r="C85" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D86" s="2">
         <v>3</v>
@@ -4365,16 +4418,114 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D87" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D89" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D91" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D92" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D94" s="12">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4382,12 +4533,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'G:\Layers\Geohydrology\RB\DEMS_Lake\out\[DEMsOut_md_V1.xlsx]basin'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A85</xm:sqref>
+          <xm:sqref>A2:A87</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
